--- a/Document/구매/졸작구매.xlsx
+++ b/Document/구매/졸작구매.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\level_design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28495\Desktop\TUK_Game_graduate\Document\구매\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A84F28A-EEDE-4162-B167-DBADD91768A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C047FA03-A59F-4669-ADF1-425DA0823007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="9060" windowWidth="29040" windowHeight="15720" xr2:uid="{F389722A-7F91-46C0-A572-2C3680FA5DB3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{F389722A-7F91-46C0-A572-2C3680FA5DB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,14 @@
   </si>
   <si>
     <t>22.10.19.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2단계로봇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/3d/characters/sci-fi-robot-character-vol-01-104716</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -182,13 +190,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -509,33 +517,33 @@
   <dimension ref="A3:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="69.5" customWidth="1"/>
+    <col min="3" max="3" width="79.9140625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="9" max="9" width="18.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -543,17 +551,17 @@
       </c>
       <c r="H3" s="3">
         <f>SUM($E$4:$E$31)</f>
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>154203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2">
@@ -562,31 +570,39 @@
       <c r="E4" s="2">
         <v>140000</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="3">
         <f>$H$3/3</f>
-        <v>46666.666666666664</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>51401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="G5" s="5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10.89</v>
+      </c>
+      <c r="E5" s="6">
+        <v>14203</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="3">
         <f>$H$3-SUM($H$8:$H$17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>14203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -595,7 +611,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -603,17 +619,17 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -632,7 +648,7 @@
         <v>46666.666666666664</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -644,7 +660,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -656,7 +672,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -668,7 +684,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -680,7 +696,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -692,7 +708,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -704,7 +720,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -716,7 +732,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -728,7 +744,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -740,7 +756,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -749,7 +765,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -758,7 +774,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -767,7 +783,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -776,7 +792,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -785,7 +801,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -794,7 +810,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -803,7 +819,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -812,7 +828,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -821,7 +837,7 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -830,7 +846,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -839,7 +855,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -848,7 +864,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -857,7 +873,7 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -866,14 +882,14 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -884,6 +900,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{BCD8D46F-49C0-4B31-8331-A121786876C3}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{0DC25FDC-7F1F-486F-A54F-846E002FD27A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Document/구매/졸작구매.xlsx
+++ b/Document/구매/졸작구매.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28495\Desktop\TUK_Game_graduate\Document\구매\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AlgaeEater\Document\구매\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C047FA03-A59F-4669-ADF1-425DA0823007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03811922-29B8-48FF-B174-7919530CA372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{F389722A-7F91-46C0-A572-2C3680FA5DB3}"/>
+    <workbookView xWindow="10890" yWindow="4140" windowWidth="20190" windowHeight="15345" xr2:uid="{F389722A-7F91-46C0-A572-2C3680FA5DB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -517,20 +517,20 @@
   <dimension ref="A3:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="79.9140625" customWidth="1"/>
+    <col min="3" max="3" width="79.875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="18.08203125" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -554,7 +554,7 @@
         <v>154203</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -578,7 +578,7 @@
         <v>51401</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -599,10 +599,10 @@
       </c>
       <c r="H5" s="3">
         <f>$H$3-SUM($H$8:$H$17)</f>
-        <v>14203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -611,7 +611,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -629,7 +629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -641,14 +641,15 @@
         <v>12</v>
       </c>
       <c r="H8" s="2">
-        <v>140000</v>
+        <f>140000+14203</f>
+        <v>154203</v>
       </c>
       <c r="I8" s="3">
         <f>H8/3</f>
-        <v>46666.666666666664</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+        <v>51401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -660,7 +661,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -672,7 +673,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -684,7 +685,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -696,7 +697,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -708,7 +709,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -720,7 +721,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -732,7 +733,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -744,7 +745,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -756,7 +757,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -765,7 +766,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -774,7 +775,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -783,7 +784,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -792,7 +793,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -801,7 +802,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -810,7 +811,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -819,7 +820,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -828,7 +829,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -837,7 +838,7 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -846,7 +847,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -855,7 +856,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -864,7 +865,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -873,7 +874,7 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -882,14 +883,14 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>

--- a/Document/구매/졸작구매.xlsx
+++ b/Document/구매/졸작구매.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AlgaeEater\Document\구매\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03811922-29B8-48FF-B174-7919530CA372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8509D793-EFD0-40D2-8595-58301D74618D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10890" yWindow="4140" windowWidth="20190" windowHeight="15345" xr2:uid="{F389722A-7F91-46C0-A572-2C3680FA5DB3}"/>
+    <workbookView xWindow="3930" yWindow="4395" windowWidth="25545" windowHeight="15345" xr2:uid="{F389722A-7F91-46C0-A572-2C3680FA5DB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -517,7 +517,7 @@
   <dimension ref="A3:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -565,7 +565,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="2">
-        <v>100</v>
+        <v>62.77</v>
       </c>
       <c r="E4" s="2">
         <v>140000</v>
